--- a/biology/Zoologie/Dorcus_taurus/Dorcus_taurus.xlsx
+++ b/biology/Zoologie/Dorcus_taurus/Dorcus_taurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorcus taurus est une espèce de coléoptères d'Insulinde appartenant à la famille des Lucanidae (cerfs-volants) ; elle a été décrite par Johan Christian Fabricius en 1801[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorcus taurus est une espèce de coléoptères d'Insulinde appartenant à la famille des Lucanidae (cerfs-volants) ; elle a été décrite par Johan Christian Fabricius en 1801.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles de D. taurus atteignent entre 50 et 60 mm de long environ et les femelles entre 40 et 45 mm environ. Chez les mâles, la tête est grosse avec de grandes pinces. La tête et le pronotum sont brun foncé, les élytres plus claires.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorcus taurus se trouve aux Philippines, en Indonésie et en Malaisie.
 </t>
@@ -573,9 +589,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les espèces et sous-espèces du genre Serrognathus ont été récemment reclassées et fusionnées dans le genre Dorcus comme suit[1],[3],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les espèces et sous-espèces du genre Serrognathus ont été récemment reclassées et fusionnées dans le genre Dorcus comme suit :
 Dorcus taurus borneensis Hughes Bomans, 1993 - Bornéo
 Dorcus taurus cribriceps (Chevrolat, 1841) - Luzón, Negros, Mindoro et Mindanao
 Dorcus taurus gypaetus ( Laporte de Castelnau, 1840) - Java
